--- a/REPORTE SEMANAL 5 DANIELA MENDEZ RAIZ.xlsx
+++ b/REPORTE SEMANAL 5 DANIELA MENDEZ RAIZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becario1_ti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B8EF32-FFA7-4594-800D-B179C1366296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D68D241B-ED10-4855-B6AE-36C0A46A4403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE SEMANAL" sheetId="1" r:id="rId1"/>
@@ -82,22 +82,22 @@
     <t>11:00 am - 12:00 pm</t>
   </si>
   <si>
-    <t>En base a observaciones previas se se le hicieron adaptaciones para cambios de nuevas interfaces.</t>
-  </si>
-  <si>
-    <t>Para confirmar los requerimentos que se necesitan de la base de datos se realizo una revision para validar su funcionalidad para lo que se necesitara.</t>
-  </si>
-  <si>
-    <t>Se acudio al Tecnologico para la revision de reportes semanales y el progreso que se tiene de el proyecto que se esta elaborando en residencia.</t>
-  </si>
-  <si>
-    <t>Tomando en cuenta ciertas funciones adicionales que se plantearon se penso en los diseños que tendran las interfaces.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se elaboraron las interfaces adicionales que se tomaron en cuenta previamente. </t>
-  </si>
-  <si>
     <t>SEMANA 5</t>
+  </si>
+  <si>
+    <t>Se le dio continuidad a los diseños que se plantearon anteriormente sobre las interfaces.</t>
+  </si>
+  <si>
+    <t>Se modifico la base de datos para cumplir con sus requerimentos ademas de hacerla habil y eficiente en cuando a la extraccion de datos.</t>
+  </si>
+  <si>
+    <t>En base a modificaciones de la base de datos se realizon correcciones a los diseños de los diagramas de Entidad - Relacion y Relacional.</t>
+  </si>
+  <si>
+    <t>Se contemplaron los aspectos que se encontraban correctos de las interfaces para asi generar un listado de cuales se les haria su codificacion proximamente.</t>
+  </si>
+  <si>
+    <t>Se inicio con la codificacion de las interfaces que se comtemplaron anteriormente.</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,37 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,36 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -924,106 +924,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>742950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B948F2E-1258-9F40-AF16-01B8805359C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="2200275"/>
-          <a:ext cx="3873500" cy="2905125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1768473</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>552450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>747714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56872871-8F6E-097B-0515-501BBF82DD24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5292723" y="2228850"/>
-          <a:ext cx="3841752" cy="2881314"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>22873</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1049,7 +949,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1064,6 +964,106 @@
         <a:xfrm>
           <a:off x="7776223" y="66674"/>
           <a:ext cx="1615427" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109070</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>369795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1019734</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39ED5D8-F03E-2993-365F-ACA9ABA1402C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="109070" y="2050677"/>
+          <a:ext cx="4440517" cy="3330388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1434353</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>381518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1595558</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85003</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3310577-634E-0DEB-9898-B2C85A296A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4964206" y="2062400"/>
+          <a:ext cx="4385823" cy="3289368"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1343,8 +1343,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,54 +1359,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="30"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="24">
         <v>5</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="25">
         <v>45945</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="32"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1425,14 +1425,14 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1441,10 +1441,10 @@
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1453,72 +1453,72 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>23</v>
+      <c r="A9" s="30" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="14">
         <v>45939</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="23"/>
+      <c r="C9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="33"/>
       <c r="E9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="15">
         <v>45940</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="25"/>
+      <c r="C10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="35"/>
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="15">
         <v>45943</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="18"/>
+      <c r="C11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="28"/>
       <c r="E11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="15">
         <v>45944</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="18"/>
+      <c r="C12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="28"/>
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="15">
         <v>45945</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="18"/>
+      <c r="C13" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="28"/>
       <c r="E13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1549,26 +1549,19 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="C12:D12"/>
@@ -1579,6 +1572,13 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
@@ -1594,7 +1594,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,54 +1609,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="30"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33">
-        <v>5</v>
-      </c>
-      <c r="F2" s="31"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34">
-        <v>45938</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="25">
+        <v>45945</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1676,7 +1674,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -1798,11 +1796,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A9:F13"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:F4"/>
@@ -1810,6 +1803,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A9:F13"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
